--- a/biology/Histoire de la zoologie et de la botanique/Henry_Wilfred_Brolemann/Henry_Wilfred_Brolemann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Wilfred_Brolemann/Henry_Wilfred_Brolemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Wilfred Brolemann (1860-1933) est un myriapodologiste français, ancien président de la Société entomologique de France, connu pour d'importants travaux sur les chilopodes et les diplopodes, dont il a nommé quelque 500 espèces. Brolemann est né le 10 juillet 1860 à Paris, dans une riche famille d'industriels et de banquiers israélites depuis longtemps convertis au protestantisme. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Wilfred Brolemann naît à Paris, le 10 juillet 1860, fils de Wilfrid Brolemann, maire d'Asnières-sur-Oise de 1868 à 1886, et d'Émilie Fornier[1].
-Diplômé de l'université de Paris, il est directeur d'agence du comptoir national d'escompte de Paris, puis est parti pour des études aux États-Unis, notamment à l'université de l'Indiana, a étudié en Italie avant de revenir en France et devenir l'un des experts mondiaux des myriapodes. Brolemann parlait couramment l'anglais, l'allemand et l'italien, et a écrit en espagnol et en portugais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Wilfred Brolemann naît à Paris, le 10 juillet 1860, fils de Wilfrid Brolemann, maire d'Asnières-sur-Oise de 1868 à 1886, et d'Émilie Fornier.
+Diplômé de l'université de Paris, il est directeur d'agence du comptoir national d'escompte de Paris, puis est parti pour des études aux États-Unis, notamment à l'université de l'Indiana, a étudié en Italie avant de revenir en France et devenir l'un des experts mondiaux des myriapodes. Brolemann parlait couramment l'anglais, l'allemand et l'italien, et a écrit en espagnol et en portugais,.
 </t>
         </is>
       </c>
